--- a/biology/Botanique/Brugmansia_arborea/Brugmansia_arborea.xlsx
+++ b/biology/Botanique/Brugmansia_arborea/Brugmansia_arborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trompette du jugement, Trompette des anges
-Brugmansia arborea, la Trompette du jugement[2] ou la Trompette des anges[2] —entre autres noms communs— est une espèce de plantes arbustives du genre Brugmansia de la famille Solanaceae. Elle est native d'Amérique du Sud et a grandi de façon sylvestre en Amérique centrale également, mais se trouve naturalisée ou cultivée partout dans le monde. L'UICN l'a classé comme espèce éteinte à l'état sauvage[3].
+Brugmansia arborea, la Trompette du jugement ou la Trompette des anges —entre autres noms communs— est une espèce de plantes arbustives du genre Brugmansia de la famille Solanaceae. Elle est native d'Amérique du Sud et a grandi de façon sylvestre en Amérique centrale également, mais se trouve naturalisée ou cultivée partout dans le monde. L'UICN l'a classé comme espèce éteinte à l'état sauvage.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste perenne ou semi-perenne couvert d'un fin indument. Il peut atteindre 7 m de hauteur. Ses feuilles, alternes, sont ovales et présentent des limbes asymétriques à leur base. Ses fleurs, qui mesurent jusqu'à 17 cm, sont sub-coniques, ont des corolles de 3-5 lobules plus ou moins aigus, sont aromatiques et de couleur blanche à ivoire. Son fruit est une baie ovoïde de 6 x 4,5 cm[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste perenne ou semi-perenne couvert d'un fin indument. Il peut atteindre 7 m de hauteur. Ses feuilles, alternes, sont ovales et présentent des limbes asymétriques à leur base. Ses fleurs, qui mesurent jusqu'à 17 cm, sont sub-coniques, ont des corolles de 3-5 lobules plus ou moins aigus, sont aromatiques et de couleur blanche à ivoire. Son fruit est une baie ovoïde de 6 x 4,5 cm,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme chez les espèces du genre Datura, tous les organes aériens des espèces de Brugmansia contiennent des substances dont la consommation peut provoquer des problèmes de santé humaine. Concrètement ils contiennent des tropanes dont, entre autres, la scopolamine et l'hyoscyamine. Leur ingestion, autant humaine qu'animale, peut être fatale avec des effets hallucinogènes très supérieurs à celui d'autres plantes hallucinogènes. Le simple contact avec les yeux peut produire une mydriase (dilatation des pupilles) ou un anisocorie (asymétrie dans la taille de la pupille)[6],[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme chez les espèces du genre Datura, tous les organes aériens des espèces de Brugmansia contiennent des substances dont la consommation peut provoquer des problèmes de santé humaine. Concrètement ils contiennent des tropanes dont, entre autres, la scopolamine et l'hyoscyamine. Leur ingestion, autant humaine qu'animale, peut être fatale avec des effets hallucinogènes très supérieurs à celui d'autres plantes hallucinogènes. Le simple contact avec les yeux peut produire une mydriase (dilatation des pupilles) ou un anisocorie (asymétrie dans la taille de la pupille).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Culture et usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On l'utilise comme plante ornementale mais elle est sensible au froid. Elle pousse très bien dans des climats tempérés, dans des emplacements couverts ; elle exige un sol riche, arrosé, frais et sec en hiver. Elle se multiplie par semis et par dissémination des graines[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On l'utilise comme plante ornementale mais elle est sensible au froid. Elle pousse très bien dans des climats tempérés, dans des emplacements couverts ; elle exige un sol riche, arrosé, frais et sec en hiver. Elle se multiplie par semis et par dissémination des graines.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Brugmansia arborea est considérée comme invasive en Nouvelle-Calédonie[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Brugmansia arborea est considérée comme invasive en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
